--- a/data/instance/20/schedule_1.xlsx
+++ b/data/instance/20/schedule_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+    <numFmt formatCode="[hh]:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -402,24 +402,22 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SQ612</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.08125</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.06180555555555556</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -432,24 +430,22 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6E42S</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.1145833333333333</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,20 +458,18 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KB900</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.1229166666666667</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.05625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C25</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -492,24 +486,22 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6E121</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.1541666666666667</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.1770833333333333</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -522,20 +514,18 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TR392</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.02847222222222222</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.21875</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -552,24 +542,22 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>JQ117</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.1986111111111111</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D36</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -582,16 +570,14 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BS308</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.2020833333333333</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.2256944444444444</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -612,20 +598,18 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6E58S</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.20625</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.02986111111111111</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -642,24 +626,22 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TR892</t>
-        </is>
+      <c r="B10" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.2131944444444444</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.06180555555555556</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>F40</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -672,20 +654,18 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6E54S</t>
-        </is>
+      <c r="B11" t="n">
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.2201388888888889</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.2430555555555556</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -702,20 +682,18 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3K761</t>
-        </is>
+      <c r="B12" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.24375</v>
+        <v>0.04097222222222222</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.2673611111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -732,24 +710,22 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NH802</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.2506944444444444</v>
+        <v>0.009027777777777777</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.2743055555555556</v>
+        <v>0.03402777777777777</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -762,24 +738,22 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SQ950</t>
-        </is>
+      <c r="B14" t="n">
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.2618055555555556</v>
+        <v>0.0125</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -792,24 +766,22 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MI176</t>
-        </is>
+      <c r="B15" t="n">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.2652777777777778</v>
+        <v>0.01805555555555555</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.04097222222222222</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -822,20 +794,18 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TR688</t>
-        </is>
+      <c r="B16" t="n">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.2673611111111111</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -852,24 +822,22 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TR894</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.2645833333333333</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>D42</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -882,24 +850,22 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MI436</t>
-        </is>
+      <c r="B18" t="n">
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.26875</v>
+        <v>0.03263888888888889</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -912,24 +878,22 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MI750</t>
-        </is>
+      <c r="B19" t="n">
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.26875</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -942,24 +906,22 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TR608</t>
-        </is>
+      <c r="B20" t="n">
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.2680555555555555</v>
+        <v>0.01805555555555555</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>D41</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -972,24 +934,22 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3K243</t>
-        </is>
+      <c r="B21" t="n">
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.2743055555555556</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.2951388888888889</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -999,6 +959,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/instance/20/schedule_1.xlsx
+++ b/data/instance/20/schedule_1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCALE_Demo_toNCS\SCALE_Demo_toNCS\test_200304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianingju/Downloads/URECA/Project files/Bi-objective 2016 v1/data/instance/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D293EC0-F495-4350-83B7-EF809EEF290E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C225A-EB16-F04E-8495-06FE391AF146}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="390" windowWidth="16110" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="16120" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlightSchedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,17 +180,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -229,7 +229,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,16 +532,16 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="7" max="8" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -593,7 +593,7 @@
         <v>4.0607629724433902</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>8.2259751195020403</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
         <v>4.5259667475579102</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -671,7 +671,7 @@
         <v>9.7467943448089596</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -697,7 +697,7 @@
         <v>3.2185982973959302</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -723,7 +723,7 @@
         <v>14.0801278403287</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -749,7 +749,7 @@
         <v>6.7627194973619797</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -775,7 +775,7 @@
         <v>13.44200505877</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -801,7 +801,7 @@
         <v>3.8405728739342999</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -827,7 +827,7 @@
         <v>4.9434299833212902</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -853,7 +853,7 @@
         <v>2.7838821814150099</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -879,7 +879,7 @@
         <v>4.4282473959795796</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -905,7 +905,7 @@
         <v>11.503622617824901</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -931,7 +931,7 @@
         <v>6.5192024052026403</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -957,7 +957,7 @@
         <v>6.0570207197928498</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -983,7 +983,7 @@
         <v>5.7973593126526097</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>19.367740575503301</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>7.9990233778880704</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>5.9358550352918797</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/data/instance/20/schedule_1.xlsx
+++ b/data/instance/20/schedule_1.xlsx
@@ -406,18 +406,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.03194444444444444</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.06180555555555556</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,14 +434,14 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.06319444444444444</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D48</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -462,14 +462,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.03402777777777777</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.05625</v>
+        <v>0.03194444444444444</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C25</t>
+          <t>E21</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -490,18 +490,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.03402777777777777</v>
+        <v>0.02986111111111111</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.05694444444444444</v>
+        <v>0.05069444444444444</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -518,14 +518,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.02847222222222222</v>
+        <v>0.01597222222222222</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.05416666666666667</v>
+        <v>0.0375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -546,18 +546,18 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.09861111111111111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -574,18 +574,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.075</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>E24</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -602,18 +602,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.003472222222222222</v>
+        <v>0.05972222222222223</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.02986111111111111</v>
+        <v>0.08125</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -630,18 +630,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.06180555555555556</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.04305555555555556</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.06527777777777778</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,18 +686,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.04305555555555556</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -714,18 +714,18 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.009027777777777777</v>
+        <v>0.08125</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.03402777777777777</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -742,14 +742,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.0125</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.07847222222222222</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C26</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.01805555555555555</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,18 +798,18 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.05694444444444444</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.05416666666666667</v>
+        <v>0.08055555555555556</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,14 +854,14 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.06805555555555555</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.05902777777777778</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -882,18 +882,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.003472222222222222</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.025</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.01805555555555555</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08680555555555555</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.04930555555555555</v>
+        <v>0.09513888888888888</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F21" t="n">
